--- a/2020.xlsx
+++ b/2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="58">
   <si>
     <t xml:space="preserve">Día </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>asi pues lo he logrado</t>
   </si>
 </sst>
 </file>
@@ -3070,10 +3073,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44151</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44152</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44153</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44154</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44155</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44156</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44157</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44158</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44159</v>
       </c>
@@ -3621,8 +3624,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44160</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44161</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44162</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44163</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44164</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44165</v>
       </c>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="59">
   <si>
     <t xml:space="preserve">Día </t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>asi pues lo he logrado</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -3073,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>44151</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>44152</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>44153</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>44154</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>44155</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>44156</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>44157</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>44158</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>44159</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>44160</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>44161</v>
       </c>
@@ -3667,8 +3670,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>44162</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>44163</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>44164</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>44165</v>
       </c>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniela\Documents\GitHub\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <sheet name="noviembre" sheetId="16" r:id="rId12"/>
     <sheet name="Hoja4" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="61">
   <si>
     <t xml:space="preserve">Día </t>
   </si>
@@ -214,11 +214,17 @@
   <si>
     <t>jk</t>
   </si>
+  <si>
+    <t>es interante</t>
+  </si>
+  <si>
+    <t>vnvhgfgfdgxg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-140A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -3079,7 +3085,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,6 +3576,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -3692,6 +3701,9 @@
       <c r="H28" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="60">
   <si>
     <t xml:space="preserve">Día </t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>jk</t>
+  </si>
+  <si>
+    <t>pium</t>
   </si>
 </sst>
 </file>
@@ -3079,7 +3082,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,6 +3515,9 @@
       <c r="H19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
